--- a/data/league_data/spain/19/spain_std.xlsx
+++ b/data/league_data/spain/19/spain_std.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F165A9E-5FC5-774F-9C55-B26A644F1119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07EE4B-E4FC-894C-B5AE-81D0C8729DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="526">
   <si>
     <t>Player</t>
   </si>
@@ -1592,12 +1592,18 @@
   </si>
   <si>
     <t>Toni Moya</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2455,11 +2461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12035,7 +12041,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>525</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>49</v>
@@ -20916,7 +20922,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>36</v>
+        <v>524</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>78</v>

--- a/data/league_data/spain/19/spain_std.xlsx
+++ b/data/league_data/spain/19/spain_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07EE4B-E4FC-894C-B5AE-81D0C8729DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55BF018-F97C-7346-A1C2-DA818CC61C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="528">
   <si>
     <t>Player</t>
   </si>
@@ -949,9 +949,6 @@
     <t>Rubén Pardo</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Gonzalo Melero</t>
   </si>
   <si>
@@ -1598,6 +1595,15 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2464,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12041,7 +12047,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>49</v>
@@ -20922,7 +20928,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>78</v>
@@ -23910,7 +23916,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>275</v>
+        <v>527</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>60</v>
@@ -25072,7 +25078,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>309</v>
+        <v>526</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>21</v>
@@ -25155,7 +25161,7 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>62</v>
@@ -25238,7 +25244,7 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>30</v>
@@ -25321,7 +25327,7 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>49</v>
@@ -25404,7 +25410,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>38</v>
@@ -25487,7 +25493,7 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>47</v>
@@ -25570,7 +25576,7 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>64</v>
@@ -25653,7 +25659,7 @@
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>60</v>
@@ -25736,7 +25742,7 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>47</v>
@@ -25819,7 +25825,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>75</v>
@@ -25902,7 +25908,7 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>21</v>
@@ -25985,7 +25991,7 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>30</v>
@@ -26068,7 +26074,7 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>64</v>
@@ -26151,7 +26157,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>78</v>
@@ -26234,7 +26240,7 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>30</v>
@@ -26317,7 +26323,7 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>38</v>
@@ -26400,7 +26406,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>44</v>
@@ -26483,7 +26489,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>21</v>
@@ -26566,7 +26572,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>38</v>
@@ -26649,7 +26655,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>60</v>
@@ -26732,7 +26738,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>78</v>
@@ -26815,7 +26821,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>41</v>
@@ -26898,7 +26904,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>78</v>
@@ -26981,7 +26987,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>52</v>
@@ -27064,7 +27070,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>52</v>
@@ -27147,7 +27153,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>62</v>
@@ -27230,7 +27236,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>52</v>
@@ -27313,7 +27319,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>47</v>
@@ -27396,7 +27402,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>23</v>
@@ -27479,7 +27485,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>23</v>
@@ -27562,7 +27568,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>78</v>
@@ -27645,7 +27651,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>47</v>
@@ -27728,7 +27734,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>35</v>
@@ -27811,7 +27817,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>62</v>
@@ -27894,7 +27900,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>23</v>
@@ -27977,7 +27983,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>332</v>
+        <v>525</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>64</v>
@@ -28060,7 +28066,7 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>52</v>
@@ -28143,7 +28149,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>21</v>
@@ -28226,7 +28232,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>49</v>
@@ -28309,7 +28315,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>38</v>
@@ -28392,7 +28398,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>72</v>
@@ -28475,7 +28481,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>62</v>
@@ -28558,7 +28564,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>47</v>
@@ -28641,7 +28647,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>62</v>
@@ -28724,7 +28730,7 @@
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>25</v>
@@ -28807,7 +28813,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>25</v>
@@ -28890,7 +28896,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>38</v>
@@ -28973,7 +28979,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>38</v>
@@ -29056,7 +29062,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>27</v>
@@ -29139,7 +29145,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>60</v>
@@ -29222,7 +29228,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>38</v>
@@ -29305,7 +29311,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>49</v>
@@ -29388,7 +29394,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>56</v>
@@ -29471,7 +29477,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>78</v>
@@ -29554,7 +29560,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>52</v>
@@ -29637,7 +29643,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>52</v>
@@ -29720,7 +29726,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>86</v>
@@ -29803,7 +29809,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>78</v>
@@ -29969,7 +29975,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>62</v>
@@ -30052,7 +30058,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>52</v>
@@ -30135,7 +30141,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>44</v>
@@ -30218,7 +30224,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>35</v>
@@ -30301,7 +30307,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>35</v>
@@ -30384,7 +30390,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>27</v>
@@ -30467,7 +30473,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>56</v>
@@ -30550,7 +30556,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>21</v>
@@ -30633,7 +30639,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>56</v>
@@ -30716,7 +30722,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>30</v>
@@ -30799,7 +30805,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>62</v>
@@ -30882,7 +30888,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>56</v>
@@ -30965,7 +30971,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>72</v>
@@ -31048,7 +31054,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>21</v>
@@ -31131,7 +31137,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>23</v>
@@ -31214,7 +31220,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>62</v>
@@ -31297,7 +31303,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>21</v>
@@ -31380,7 +31386,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>86</v>
@@ -31463,7 +31469,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>52</v>
@@ -31546,7 +31552,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>47</v>
@@ -31629,7 +31635,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>30</v>
@@ -31712,7 +31718,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>62</v>
@@ -31795,7 +31801,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>35</v>
@@ -31878,7 +31884,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>62</v>
@@ -31961,7 +31967,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>30</v>
@@ -32044,7 +32050,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>21</v>
@@ -32127,7 +32133,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>78</v>
@@ -32210,7 +32216,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>35</v>
@@ -32293,7 +32299,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>86</v>
@@ -32376,7 +32382,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>27</v>
@@ -32459,7 +32465,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>41</v>
@@ -32542,7 +32548,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>23</v>
@@ -32625,7 +32631,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>56</v>
@@ -32708,7 +32714,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>72</v>
@@ -32791,7 +32797,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>60</v>
@@ -32874,7 +32880,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>27</v>
@@ -32957,7 +32963,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>75</v>
@@ -33040,7 +33046,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>49</v>
@@ -33123,7 +33129,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>41</v>
@@ -33206,7 +33212,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>75</v>
@@ -33289,7 +33295,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>64</v>
@@ -33372,7 +33378,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>86</v>
@@ -33455,7 +33461,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>44</v>
@@ -33538,7 +33544,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>38</v>
@@ -33621,7 +33627,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>64</v>
@@ -33704,7 +33710,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>41</v>
@@ -33870,7 +33876,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>27</v>
@@ -33953,7 +33959,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>86</v>
@@ -34036,7 +34042,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>62</v>
@@ -34119,7 +34125,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>60</v>
@@ -34202,7 +34208,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>52</v>
@@ -34285,7 +34291,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>56</v>
@@ -34368,7 +34374,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>86</v>
@@ -34451,7 +34457,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>75</v>
@@ -34534,7 +34540,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>72</v>
@@ -34617,7 +34623,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>75</v>
@@ -34700,7 +34706,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>78</v>
@@ -34783,7 +34789,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>62</v>
@@ -34866,7 +34872,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>72</v>
@@ -34949,7 +34955,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>44</v>
@@ -35032,7 +35038,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>30</v>
@@ -35115,7 +35121,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>72</v>
@@ -35198,7 +35204,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>49</v>
@@ -35281,7 +35287,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>56</v>
@@ -35364,7 +35370,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>21</v>
@@ -35447,7 +35453,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>35</v>
@@ -35530,7 +35536,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>75</v>
@@ -35613,7 +35619,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>62</v>
@@ -35696,7 +35702,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>35</v>
@@ -35779,7 +35785,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>62</v>
@@ -35862,7 +35868,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>38</v>
@@ -35945,7 +35951,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>60</v>
@@ -36028,7 +36034,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>30</v>
@@ -36111,7 +36117,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>49</v>
@@ -36194,7 +36200,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>38</v>
@@ -36277,7 +36283,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>25</v>
@@ -36360,7 +36366,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>25</v>
@@ -36443,7 +36449,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>72</v>
@@ -36526,7 +36532,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>78</v>
@@ -36609,7 +36615,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>56</v>
@@ -36692,7 +36698,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>27</v>
@@ -36775,7 +36781,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>64</v>
@@ -36858,7 +36864,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>86</v>
@@ -36941,7 +36947,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>25</v>
@@ -37024,7 +37030,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>23</v>
@@ -37107,7 +37113,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>38</v>
@@ -37190,7 +37196,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>25</v>
@@ -37273,7 +37279,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>78</v>
@@ -37439,7 +37445,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>56</v>
@@ -37522,7 +37528,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>47</v>
@@ -37605,7 +37611,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>60</v>
@@ -37688,7 +37694,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>52</v>
@@ -37771,7 +37777,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>44</v>
@@ -37854,7 +37860,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>52</v>
@@ -37937,7 +37943,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>21</v>
@@ -38020,7 +38026,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>72</v>
@@ -38103,7 +38109,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>72</v>
@@ -38186,7 +38192,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>56</v>
@@ -38269,7 +38275,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>62</v>
@@ -38352,7 +38358,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>64</v>
@@ -38435,7 +38441,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>49</v>
@@ -38518,7 +38524,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>60</v>
@@ -38601,7 +38607,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>30</v>
@@ -38684,7 +38690,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>56</v>
@@ -38767,7 +38773,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>25</v>
@@ -38850,7 +38856,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>78</v>
@@ -38933,7 +38939,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>25</v>
@@ -39016,7 +39022,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>60</v>
@@ -39099,7 +39105,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>27</v>
@@ -39182,7 +39188,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>47</v>
@@ -39265,7 +39271,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>38</v>
@@ -39348,7 +39354,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>27</v>
@@ -39431,7 +39437,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>41</v>
@@ -39514,7 +39520,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>35</v>
@@ -39597,7 +39603,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>44</v>
@@ -39680,7 +39686,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>27</v>
@@ -39763,7 +39769,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>35</v>
@@ -39846,7 +39852,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>41</v>
@@ -39929,7 +39935,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>49</v>
@@ -40012,7 +40018,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>75</v>
@@ -40095,7 +40101,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>75</v>
@@ -40178,7 +40184,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>47</v>
@@ -40261,7 +40267,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>52</v>
@@ -40344,7 +40350,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>30</v>
@@ -40427,7 +40433,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>23</v>
@@ -40510,7 +40516,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>41</v>
@@ -40593,7 +40599,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>41</v>
@@ -40676,7 +40682,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>52</v>
@@ -40759,7 +40765,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>60</v>
@@ -40842,7 +40848,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>52</v>
@@ -40925,7 +40931,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>21</v>
@@ -41008,7 +41014,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>49</v>
@@ -41091,7 +41097,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>60</v>
@@ -41174,7 +41180,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>44</v>
@@ -41257,7 +41263,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>60</v>
@@ -41340,7 +41346,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>75</v>
@@ -41423,7 +41429,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>44</v>
@@ -41506,7 +41512,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>47</v>
@@ -41589,7 +41595,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>47</v>
@@ -41672,7 +41678,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>64</v>
@@ -41755,7 +41761,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>72</v>
@@ -41838,7 +41844,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>47</v>
@@ -41921,7 +41927,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>27</v>
@@ -42004,7 +42010,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>35</v>
@@ -42087,7 +42093,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>49</v>
@@ -42170,7 +42176,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>86</v>
@@ -42253,7 +42259,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>41</v>
@@ -42336,7 +42342,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>30</v>
@@ -42419,7 +42425,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>41</v>
@@ -42502,7 +42508,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>41</v>
@@ -42585,7 +42591,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>47</v>
@@ -42668,7 +42674,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>25</v>
@@ -42751,7 +42757,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>72</v>
@@ -42834,7 +42840,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>60</v>
@@ -42917,7 +42923,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>41</v>
@@ -43000,7 +43006,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>62</v>
@@ -43083,7 +43089,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>21</v>
@@ -43166,7 +43172,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>49</v>
@@ -43249,7 +43255,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>23</v>
@@ -43332,7 +43338,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>47</v>
@@ -43415,7 +43421,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>25</v>
@@ -43498,7 +43504,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>72</v>
@@ -43581,7 +43587,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>38</v>
@@ -43664,7 +43670,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>23</v>
@@ -43747,7 +43753,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>52</v>
@@ -43830,7 +43836,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>23</v>
@@ -43913,7 +43919,7 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>44</v>

--- a/data/league_data/spain/19/spain_std.xlsx
+++ b/data/league_data/spain/19/spain_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55BF018-F97C-7346-A1C2-DA818CC61C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC04B3F-1838-5945-8244-A68C4F597309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1417,9 +1417,6 @@
     <t>Cheick Doukouré</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Ignasi Miquel</t>
   </si>
   <si>
@@ -1604,6 +1601,9 @@
   </si>
   <si>
     <t>Juanfran Moreno</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2470,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>49</v>
@@ -20928,7 +20928,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>78</v>
@@ -23916,7 +23916,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>60</v>
@@ -25078,7 +25078,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>21</v>
@@ -27983,7 +27983,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>64</v>
@@ -38690,7 +38690,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>56</v>
@@ -38773,7 +38773,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>25</v>
@@ -38856,7 +38856,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>78</v>
@@ -38939,7 +38939,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>25</v>
@@ -39022,7 +39022,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>60</v>
@@ -39105,7 +39105,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>27</v>
@@ -39188,7 +39188,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>47</v>
@@ -39271,7 +39271,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>38</v>
@@ -39354,7 +39354,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>27</v>
@@ -39437,7 +39437,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>41</v>
@@ -39520,7 +39520,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>35</v>
@@ -39603,7 +39603,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>44</v>
@@ -39686,7 +39686,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>27</v>
@@ -39769,7 +39769,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>35</v>
@@ -39852,7 +39852,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>41</v>
@@ -39935,7 +39935,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>49</v>
@@ -40018,7 +40018,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>75</v>
@@ -40101,7 +40101,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>75</v>
@@ -40184,7 +40184,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>47</v>
@@ -40267,7 +40267,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>52</v>
@@ -40350,7 +40350,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>30</v>
@@ -40433,7 +40433,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>23</v>
@@ -40516,7 +40516,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>41</v>
@@ -40599,7 +40599,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>41</v>
@@ -40682,7 +40682,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>52</v>
@@ -40765,7 +40765,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>60</v>
@@ -40848,7 +40848,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>52</v>
@@ -40931,7 +40931,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>21</v>
@@ -41014,7 +41014,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>49</v>
@@ -41097,7 +41097,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>60</v>
@@ -41263,7 +41263,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>60</v>
@@ -41346,7 +41346,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>75</v>
@@ -41512,7 +41512,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>47</v>
@@ -41595,7 +41595,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>47</v>
@@ -41678,7 +41678,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>64</v>
@@ -41761,7 +41761,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>72</v>
@@ -41844,7 +41844,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>47</v>
@@ -41927,7 +41927,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>27</v>
@@ -42010,7 +42010,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>35</v>
@@ -42093,7 +42093,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>49</v>
@@ -42176,7 +42176,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>86</v>
@@ -42342,7 +42342,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>30</v>
@@ -42425,7 +42425,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>41</v>
@@ -42508,7 +42508,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>41</v>
@@ -42591,7 +42591,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>47</v>
@@ -42674,7 +42674,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>25</v>
@@ -42757,7 +42757,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>72</v>
@@ -42840,7 +42840,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>60</v>
@@ -42923,7 +42923,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>41</v>
@@ -43006,7 +43006,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>62</v>
@@ -43089,7 +43089,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>21</v>
@@ -43172,7 +43172,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>49</v>
@@ -43255,7 +43255,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>23</v>
@@ -43338,7 +43338,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>47</v>
@@ -43421,7 +43421,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>25</v>
@@ -43504,7 +43504,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>72</v>
@@ -43587,7 +43587,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>38</v>
@@ -43670,7 +43670,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>23</v>
@@ -43753,7 +43753,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>52</v>
@@ -43836,7 +43836,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>23</v>
@@ -43919,7 +43919,7 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>44</v>
